--- a/Complete-spreadsheets/TASK/Fp2-list-TA.xlsx
+++ b/Complete-spreadsheets/TASK/Fp2-list-TA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\TASK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E9726D-DC76-4740-ABF2-ED9EFF36886C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2E0767-50FB-4BFE-A162-5BA0C42A10A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:P10"/>
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,23 +505,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>416.10960927298441</v>
-      </c>
-      <c r="C2" s="3">
-        <v>66.423316112111777</v>
-      </c>
-      <c r="D2" s="3">
-        <v>4.6931837765146396</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2.255729169055821</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2.1687998120334102</v>
+      <c r="B2" s="4">
+        <v>985.54591185643699</v>
+      </c>
+      <c r="C2" s="4">
+        <v>124.72507875094119</v>
+      </c>
+      <c r="D2" s="4">
+        <v>11.09205476753367</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.6191970186581028</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.7156449479888041</v>
       </c>
       <c r="G2">
-        <v>491.65063814270002</v>
+        <v>1127.697887341559</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>28</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
@@ -544,22 +544,22 @@
         <v>9</v>
       </c>
       <c r="B3" s="4">
-        <v>985.54591185643699</v>
+        <v>281.07109522258048</v>
       </c>
       <c r="C3" s="4">
-        <v>124.72507875094119</v>
+        <v>75.225791332294264</v>
       </c>
       <c r="D3" s="4">
-        <v>11.09205476753367</v>
+        <v>15.71128305114871</v>
       </c>
       <c r="E3" s="4">
-        <v>3.6191970186581028</v>
+        <v>5.3545626906779349</v>
       </c>
       <c r="F3" s="4">
-        <v>2.7156449479888041</v>
+        <v>3.670880149445034</v>
       </c>
       <c r="G3">
-        <v>1127.697887341559</v>
+        <v>381.03361244614649</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
@@ -581,23 +581,23 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
-        <v>45.635789749960743</v>
-      </c>
-      <c r="C4" s="3">
-        <v>14.172699043962259</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4.7178925273411618</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3.6905988380809638</v>
-      </c>
-      <c r="F4" s="3">
-        <v>3.1541023858898631</v>
+      <c r="B4" s="4">
+        <v>209.06163229634549</v>
+      </c>
+      <c r="C4" s="4">
+        <v>49.461305950907658</v>
+      </c>
+      <c r="D4" s="4">
+        <v>18.362382217662368</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6.0136261455298659</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5.7413649654974153</v>
       </c>
       <c r="G4">
-        <v>71.371082545234984</v>
+        <v>288.6403115759428</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -606,10 +606,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
       </c>
       <c r="L4" t="s">
         <v>14</v>
@@ -620,22 +620,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="4">
-        <v>281.07109522258048</v>
+        <v>166.1842774641203</v>
       </c>
       <c r="C5" s="4">
-        <v>75.225791332294264</v>
+        <v>49.35477862731112</v>
       </c>
       <c r="D5" s="4">
-        <v>15.71128305114871</v>
+        <v>10.465526124397931</v>
       </c>
       <c r="E5" s="4">
-        <v>5.3545626906779349</v>
+        <v>4.4555976283286398</v>
       </c>
       <c r="F5" s="4">
-        <v>3.670880149445034</v>
+        <v>5.8025203511498171</v>
       </c>
       <c r="G5">
-        <v>381.03361244614649</v>
+        <v>236.2627001953079</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -657,23 +657,23 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
-        <v>211.59567370309321</v>
-      </c>
-      <c r="C6" s="3">
-        <v>24.056250044768721</v>
-      </c>
-      <c r="D6" s="3">
-        <v>9.7441589952634402</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5.8002108170161906</v>
-      </c>
-      <c r="F6" s="3">
-        <v>4.121941655962992</v>
+      <c r="B6" s="4">
+        <v>166.1842774641203</v>
+      </c>
+      <c r="C6" s="4">
+        <v>49.35477862731112</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10.465526124397931</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4.4555976283286398</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5.8025203511498171</v>
       </c>
       <c r="G6">
-        <v>255.3182352161046</v>
+        <v>236.2627001953079</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -682,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>24</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>14</v>
@@ -695,23 +695,23 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>674.01201656520107</v>
-      </c>
-      <c r="C7" s="3">
-        <v>205.62296977354191</v>
-      </c>
-      <c r="D7" s="3">
-        <v>24.936580085091059</v>
-      </c>
-      <c r="E7" s="3">
-        <v>6.8977686736741912</v>
-      </c>
-      <c r="F7" s="3">
-        <v>4.2922802739022039</v>
+      <c r="B7" s="4">
+        <v>166.1842774641203</v>
+      </c>
+      <c r="C7" s="4">
+        <v>49.35477862731112</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10.465526124397931</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4.4555976283286398</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5.8025203511498171</v>
       </c>
       <c r="G7">
-        <v>915.76161537141024</v>
+        <v>236.2627001953079</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
       </c>
       <c r="L7" t="s">
         <v>14</v>
@@ -733,23 +733,23 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
-        <v>1471.68914504144</v>
-      </c>
-      <c r="C8" s="3">
-        <v>393.21972024629412</v>
-      </c>
-      <c r="D8" s="3">
-        <v>37.953257360636243</v>
-      </c>
-      <c r="E8" s="3">
-        <v>6.5353457227144931</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5.0881565559468207</v>
+      <c r="B8" s="4">
+        <v>166.1842774641203</v>
+      </c>
+      <c r="C8" s="4">
+        <v>49.35477862731112</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10.465526124397931</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.4555976283286398</v>
+      </c>
+      <c r="F8" s="4">
+        <v>5.8025203511498171</v>
       </c>
       <c r="G8">
-        <v>1914.4856249270319</v>
+        <v>236.2627001953079</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
@@ -774,23 +774,23 @@
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
-        <v>757.29620050469816</v>
-      </c>
-      <c r="C9" s="3">
-        <v>205.2390827210703</v>
-      </c>
-      <c r="D9" s="3">
-        <v>28.92576398506559</v>
-      </c>
-      <c r="E9" s="3">
-        <v>12.29359738284494</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5.5356507893742704</v>
+      <c r="B9" s="4">
+        <v>166.1842774641203</v>
+      </c>
+      <c r="C9" s="4">
+        <v>49.35477862731112</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10.465526124397931</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4.4555976283286398</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5.8025203511498171</v>
       </c>
       <c r="G9">
-        <v>1009.290295383053</v>
+        <v>236.2627001953079</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -799,10 +799,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>18</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
@@ -815,23 +815,23 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>341.85455711319162</v>
-      </c>
-      <c r="C10" s="3">
-        <v>27.241427451006949</v>
-      </c>
-      <c r="D10" s="3">
-        <v>5.4075132234703682</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4.3244354587888942</v>
-      </c>
-      <c r="F10" s="3">
-        <v>5.5450629965883707</v>
+      <c r="B10" s="4">
+        <v>166.1842774641203</v>
+      </c>
+      <c r="C10" s="4">
+        <v>49.35477862731112</v>
+      </c>
+      <c r="D10" s="4">
+        <v>10.465526124397931</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.4555976283286398</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5.8025203511498171</v>
       </c>
       <c r="G10">
-        <v>384.37299624304632</v>
+        <v>236.2627001953079</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -842,8 +842,8 @@
       <c r="J10">
         <v>12</v>
       </c>
-      <c r="K10" s="3">
-        <v>1</v>
+      <c r="K10" s="4">
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
@@ -856,23 +856,23 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <v>1830.648185677645</v>
-      </c>
-      <c r="C11" s="3">
-        <v>252.47871782837279</v>
-      </c>
-      <c r="D11" s="3">
-        <v>19.039748853638589</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5.5516522650791602</v>
-      </c>
-      <c r="F11" s="3">
-        <v>5.61422122696065</v>
+      <c r="B11" s="4">
+        <v>166.1842774641203</v>
+      </c>
+      <c r="C11" s="4">
+        <v>49.35477862731112</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10.465526124397931</v>
+      </c>
+      <c r="E11" s="4">
+        <v>4.4555976283286398</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5.8025203511498171</v>
       </c>
       <c r="G11">
-        <v>2113.3325258516961</v>
+        <v>236.2627001953079</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -881,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>26</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
@@ -895,22 +895,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="4">
-        <v>209.06163229634549</v>
+        <v>166.1842774641203</v>
       </c>
       <c r="C12" s="4">
-        <v>49.461305950907658</v>
+        <v>49.35477862731112</v>
       </c>
       <c r="D12" s="4">
-        <v>18.362382217662368</v>
+        <v>10.465526124397931</v>
       </c>
       <c r="E12" s="4">
-        <v>6.0136261455298659</v>
+        <v>4.4555976283286398</v>
       </c>
       <c r="F12" s="4">
-        <v>5.7413649654974153</v>
+        <v>5.8025203511498171</v>
       </c>
       <c r="G12">
-        <v>288.6403115759428</v>
+        <v>236.2627001953079</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
@@ -971,22 +971,22 @@
         <v>9</v>
       </c>
       <c r="B14" s="4">
-        <v>166.1842774641203</v>
+        <v>150.63252333138649</v>
       </c>
       <c r="C14" s="4">
-        <v>49.35477862731112</v>
+        <v>53.828457921979783</v>
       </c>
       <c r="D14" s="4">
-        <v>10.465526124397931</v>
+        <v>7.5261886173718464</v>
       </c>
       <c r="E14" s="4">
-        <v>4.4555976283286398</v>
+        <v>5.4765251266768047</v>
       </c>
       <c r="F14" s="4">
-        <v>5.8025203511498171</v>
+        <v>6.6900130570488496</v>
       </c>
       <c r="G14">
-        <v>236.2627001953079</v>
+        <v>224.15370805446381</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="4">
-        <v>166.1842774641203</v>
+        <v>1991.2868223592841</v>
       </c>
       <c r="C15" s="4">
-        <v>49.35477862731112</v>
+        <v>125.4283495015565</v>
       </c>
       <c r="D15" s="4">
-        <v>10.465526124397931</v>
+        <v>11.714530661927389</v>
       </c>
       <c r="E15" s="4">
-        <v>4.4555976283286398</v>
+        <v>5.5043231196026996</v>
       </c>
       <c r="F15" s="4">
-        <v>5.8025203511498171</v>
+        <v>6.8663668268650024</v>
       </c>
       <c r="G15">
-        <v>236.2627001953079</v>
+        <v>2140.8003924692362</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
@@ -1047,22 +1047,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>166.1842774641203</v>
+        <v>694.55710322070399</v>
       </c>
       <c r="C16" s="4">
-        <v>49.35477862731112</v>
+        <v>336.46264129678968</v>
       </c>
       <c r="D16" s="4">
-        <v>10.465526124397931</v>
+        <v>23.103884597924779</v>
       </c>
       <c r="E16" s="4">
-        <v>4.4555976283286398</v>
+        <v>13.19675940021115</v>
       </c>
       <c r="F16" s="4">
-        <v>5.8025203511498171</v>
+        <v>9.6404843816495021</v>
       </c>
       <c r="G16">
-        <v>236.2627001953079</v>
+        <v>1076.9608728972789</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -1085,22 +1085,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="4">
-        <v>166.1842774641203</v>
+        <v>1101.030498046965</v>
       </c>
       <c r="C17" s="4">
-        <v>49.35477862731112</v>
+        <v>204.24573752143419</v>
       </c>
       <c r="D17" s="4">
-        <v>10.465526124397931</v>
+        <v>34.175963651973603</v>
       </c>
       <c r="E17" s="4">
-        <v>4.4555976283286398</v>
+        <v>10.24387876814686</v>
       </c>
       <c r="F17" s="4">
-        <v>5.8025203511498171</v>
+        <v>9.8375736197958883</v>
       </c>
       <c r="G17">
-        <v>236.2627001953079</v>
+        <v>1359.5336516083159</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -1123,22 +1123,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="4">
-        <v>166.1842774641203</v>
+        <v>446.37533521668507</v>
       </c>
       <c r="C18" s="4">
-        <v>49.35477862731112</v>
+        <v>81.591940506042533</v>
       </c>
       <c r="D18" s="4">
-        <v>10.465526124397931</v>
+        <v>23.95953355837818</v>
       </c>
       <c r="E18" s="4">
-        <v>4.4555976283286398</v>
+        <v>10.41518077389471</v>
       </c>
       <c r="F18" s="4">
-        <v>5.8025203511498171</v>
+        <v>14.908948125756259</v>
       </c>
       <c r="G18">
-        <v>236.2627001953079</v>
+        <v>577.25093818075675</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -1161,22 +1161,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="4">
-        <v>166.1842774641203</v>
+        <v>346.79162911138258</v>
       </c>
       <c r="C19" s="4">
-        <v>49.35477862731112</v>
+        <v>146.32164559845569</v>
       </c>
       <c r="D19" s="4">
-        <v>10.465526124397931</v>
+        <v>11.53785444674832</v>
       </c>
       <c r="E19" s="4">
-        <v>4.4555976283286398</v>
+        <v>8.033143863679701</v>
       </c>
       <c r="F19" s="4">
-        <v>5.8025203511498171</v>
+        <v>18.088746490331221</v>
       </c>
       <c r="G19">
-        <v>236.2627001953079</v>
+        <v>530.77301951059769</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -1199,22 +1199,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="4">
-        <v>166.1842774641203</v>
+        <v>287.10054208180941</v>
       </c>
       <c r="C20" s="4">
-        <v>49.35477862731112</v>
+        <v>82.824454242349006</v>
       </c>
       <c r="D20" s="4">
-        <v>10.465526124397931</v>
+        <v>13.28331729260365</v>
       </c>
       <c r="E20" s="4">
-        <v>4.4555976283286398</v>
+        <v>9.5604151794134058</v>
       </c>
       <c r="F20" s="4">
-        <v>5.8025203511498171</v>
+        <v>21.758898491151459</v>
       </c>
       <c r="G20">
-        <v>236.2627001953079</v>
+        <v>414.52762728732688</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -1237,22 +1237,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="4">
-        <v>166.1842774641203</v>
+        <v>114.6745030308914</v>
       </c>
       <c r="C21" s="4">
-        <v>49.35477862731112</v>
+        <v>52.625968462794539</v>
       </c>
       <c r="D21" s="4">
-        <v>10.465526124397931</v>
+        <v>16.336556976463381</v>
       </c>
       <c r="E21" s="4">
-        <v>4.4555976283286398</v>
+        <v>13.76952663342751</v>
       </c>
       <c r="F21" s="4">
-        <v>5.8025203511498171</v>
+        <v>27.507553790762561</v>
       </c>
       <c r="G21">
-        <v>236.2627001953079</v>
+        <v>224.91410889433939</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1261,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -1274,23 +1274,23 @@
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3">
-        <v>168.5308527163713</v>
-      </c>
-      <c r="C22" s="3">
-        <v>38.034659895820241</v>
-      </c>
-      <c r="D22" s="3">
-        <v>22.931826646584181</v>
-      </c>
-      <c r="E22" s="3">
-        <v>10.328370348940251</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6.6854054056822623</v>
+      <c r="B22" s="4">
+        <v>608.29940251165795</v>
+      </c>
+      <c r="C22" s="4">
+        <v>223.11130625327201</v>
+      </c>
+      <c r="D22" s="4">
+        <v>68.879390323298281</v>
+      </c>
+      <c r="E22" s="4">
+        <v>53.276324268476351</v>
+      </c>
+      <c r="F22" s="4">
+        <v>40.434983481913839</v>
       </c>
       <c r="G22">
-        <v>246.5111150133983</v>
+        <v>994.00140683861866</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>22</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
       </c>
       <c r="L22" t="s">
         <v>14</v>
@@ -1313,22 +1313,22 @@
         <v>9</v>
       </c>
       <c r="B23" s="4">
-        <v>150.63252333138649</v>
+        <v>5061.5609306900697</v>
       </c>
       <c r="C23" s="4">
-        <v>53.828457921979783</v>
+        <v>816.1718269621939</v>
       </c>
       <c r="D23" s="4">
-        <v>7.5261886173718464</v>
+        <v>143.15565512741631</v>
       </c>
       <c r="E23" s="4">
-        <v>5.4765251266768047</v>
+        <v>134.752116767909</v>
       </c>
       <c r="F23" s="4">
-        <v>6.6900130570488496</v>
+        <v>225.39884078746999</v>
       </c>
       <c r="G23">
-        <v>224.15370805446381</v>
+        <v>6381.039370335061</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -1351,22 +1351,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3">
-        <v>263.47224594943373</v>
+        <v>416.10960927298441</v>
       </c>
       <c r="C24" s="3">
-        <v>66.126575992991903</v>
+        <v>66.423316112111777</v>
       </c>
       <c r="D24" s="3">
-        <v>12.09052608827845</v>
+        <v>4.6931837765146396</v>
       </c>
       <c r="E24" s="3">
-        <v>7.5403611736105471</v>
+        <v>2.255729169055821</v>
       </c>
       <c r="F24" s="3">
-        <v>6.699831591203889</v>
+        <v>2.1687998120334102</v>
       </c>
       <c r="G24">
-        <v>355.92954079551839</v>
+        <v>491.65063814270002</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
@@ -1388,23 +1388,23 @@
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="4">
-        <v>1991.2868223592841</v>
-      </c>
-      <c r="C25" s="4">
-        <v>125.4283495015565</v>
-      </c>
-      <c r="D25" s="4">
-        <v>11.714530661927389</v>
-      </c>
-      <c r="E25" s="4">
-        <v>5.5043231196026996</v>
-      </c>
-      <c r="F25" s="4">
-        <v>6.8663668268650024</v>
+      <c r="B25" s="3">
+        <v>45.635789749960743</v>
+      </c>
+      <c r="C25" s="3">
+        <v>14.172699043962259</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4.7178925273411618</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3.6905988380809638</v>
+      </c>
+      <c r="F25" s="3">
+        <v>3.1541023858898631</v>
       </c>
       <c r="G25">
-        <v>2140.8003924692362</v>
+        <v>71.371082545234984</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1413,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>13</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="K25" s="3">
+        <v>1</v>
       </c>
       <c r="L25" t="s">
         <v>14</v>
@@ -1427,22 +1427,22 @@
         <v>9</v>
       </c>
       <c r="B26" s="3">
-        <v>283.58099359256221</v>
+        <v>211.59567370309321</v>
       </c>
       <c r="C26" s="3">
-        <v>71.999195808833463</v>
+        <v>24.056250044768721</v>
       </c>
       <c r="D26" s="3">
-        <v>10.874792599555381</v>
+        <v>9.7441589952634402</v>
       </c>
       <c r="E26" s="3">
-        <v>8.3380218568355282</v>
+        <v>5.8002108170161906</v>
       </c>
       <c r="F26" s="3">
-        <v>7.4785522901231367</v>
+        <v>4.121941655962992</v>
       </c>
       <c r="G26">
-        <v>382.27155614790968</v>
+        <v>255.3182352161046</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K26" s="3">
         <v>1</v>
@@ -1465,22 +1465,22 @@
         <v>9</v>
       </c>
       <c r="B27" s="3">
-        <v>648.84628904053056</v>
+        <v>674.01201656520107</v>
       </c>
       <c r="C27" s="3">
-        <v>147.46957219958071</v>
+        <v>205.62296977354191</v>
       </c>
       <c r="D27" s="3">
-        <v>23.463071855382221</v>
+        <v>24.936580085091059</v>
       </c>
       <c r="E27" s="3">
-        <v>8.5381940776354419</v>
+        <v>6.8977686736741912</v>
       </c>
       <c r="F27" s="3">
-        <v>7.6358130693399824</v>
+        <v>4.2922802739022039</v>
       </c>
       <c r="G27">
-        <v>835.9529402424688</v>
+        <v>915.76161537141024</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K27" s="3">
         <v>1</v>
@@ -1503,22 +1503,22 @@
         <v>9</v>
       </c>
       <c r="B28" s="3">
-        <v>1358.944705653739</v>
+        <v>1471.68914504144</v>
       </c>
       <c r="C28" s="3">
-        <v>521.21822494707658</v>
+        <v>393.21972024629412</v>
       </c>
       <c r="D28" s="3">
-        <v>90.677510460684886</v>
+        <v>37.953257360636243</v>
       </c>
       <c r="E28" s="3">
-        <v>14.07381990315236</v>
+        <v>6.5353457227144931</v>
       </c>
       <c r="F28" s="3">
-        <v>7.7894413246896104</v>
+        <v>5.0881565559468207</v>
       </c>
       <c r="G28">
-        <v>1992.7037022893419</v>
+        <v>1914.4856249270319</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K28" s="3">
         <v>1</v>
@@ -1540,23 +1540,23 @@
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="4">
-        <v>694.55710322070399</v>
-      </c>
-      <c r="C29" s="4">
-        <v>336.46264129678968</v>
-      </c>
-      <c r="D29" s="4">
-        <v>23.103884597924779</v>
-      </c>
-      <c r="E29" s="4">
-        <v>13.19675940021115</v>
-      </c>
-      <c r="F29" s="4">
-        <v>9.6404843816495021</v>
+      <c r="B29" s="3">
+        <v>757.29620050469816</v>
+      </c>
+      <c r="C29" s="3">
+        <v>205.2390827210703</v>
+      </c>
+      <c r="D29" s="3">
+        <v>28.92576398506559</v>
+      </c>
+      <c r="E29" s="3">
+        <v>12.29359738284494</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5.5356507893742704</v>
       </c>
       <c r="G29">
-        <v>1076.9608728972789</v>
+        <v>1009.290295383053</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1565,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>10</v>
-      </c>
-      <c r="K29" s="4">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>14</v>
@@ -1578,23 +1578,23 @@
       <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="4">
-        <v>1101.030498046965</v>
-      </c>
-      <c r="C30" s="4">
-        <v>204.24573752143419</v>
-      </c>
-      <c r="D30" s="4">
-        <v>34.175963651973603</v>
-      </c>
-      <c r="E30" s="4">
-        <v>10.24387876814686</v>
-      </c>
-      <c r="F30" s="4">
-        <v>9.8375736197958883</v>
+      <c r="B30" s="3">
+        <v>341.85455711319162</v>
+      </c>
+      <c r="C30" s="3">
+        <v>27.241427451006949</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5.4075132234703682</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4.3244354587888942</v>
+      </c>
+      <c r="F30" s="3">
+        <v>5.5450629965883707</v>
       </c>
       <c r="G30">
-        <v>1359.5336516083159</v>
+        <v>384.37299624304632</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>19</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K30" s="3">
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>14</v>
@@ -1617,22 +1617,22 @@
         <v>9</v>
       </c>
       <c r="B31" s="3">
-        <v>1186.0400168291819</v>
+        <v>1830.648185677645</v>
       </c>
       <c r="C31" s="3">
-        <v>192.6339732285409</v>
+        <v>252.47871782837279</v>
       </c>
       <c r="D31" s="3">
-        <v>26.44705508330032</v>
+        <v>19.039748853638589</v>
       </c>
       <c r="E31" s="3">
-        <v>11.35558753930564</v>
+        <v>5.5516522650791602</v>
       </c>
       <c r="F31" s="3">
-        <v>10.01523611406618</v>
+        <v>5.61422122696065</v>
       </c>
       <c r="G31">
-        <v>1426.491868794395</v>
+        <v>2113.3325258516961</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="K31" s="3">
         <v>1</v>
@@ -1655,22 +1655,22 @@
         <v>9</v>
       </c>
       <c r="B32" s="3">
-        <v>358.08096477526919</v>
+        <v>168.5308527163713</v>
       </c>
       <c r="C32" s="3">
-        <v>55.103236798998793</v>
+        <v>38.034659895820241</v>
       </c>
       <c r="D32" s="3">
-        <v>9.9880770201838054</v>
+        <v>22.931826646584181</v>
       </c>
       <c r="E32" s="3">
-        <v>8.5023303315692935</v>
+        <v>10.328370348940251</v>
       </c>
       <c r="F32" s="3">
-        <v>10.363256196406811</v>
+        <v>6.6854054056822623</v>
       </c>
       <c r="G32">
-        <v>442.03786512242777</v>
+        <v>246.5111150133983</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
@@ -1693,22 +1693,22 @@
         <v>9</v>
       </c>
       <c r="B33" s="3">
-        <v>2494.9698839670632</v>
+        <v>263.47224594943373</v>
       </c>
       <c r="C33" s="3">
-        <v>506.41964174434321</v>
+        <v>66.126575992991903</v>
       </c>
       <c r="D33" s="3">
-        <v>91.08541226935985</v>
+        <v>12.09052608827845</v>
       </c>
       <c r="E33" s="3">
-        <v>29.0638568347585</v>
+        <v>7.5403611736105471</v>
       </c>
       <c r="F33" s="3">
-        <v>13.195763942850579</v>
+        <v>6.699831591203889</v>
       </c>
       <c r="G33">
-        <v>3134.734558758375</v>
+        <v>355.92954079551839</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="K33" s="3">
         <v>1</v>
@@ -1730,23 +1730,23 @@
       <c r="A34" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4">
-        <v>446.37533521668507</v>
-      </c>
-      <c r="C34" s="4">
-        <v>81.591940506042533</v>
-      </c>
-      <c r="D34" s="4">
-        <v>23.95953355837818</v>
-      </c>
-      <c r="E34" s="4">
-        <v>10.41518077389471</v>
-      </c>
-      <c r="F34" s="4">
-        <v>14.908948125756259</v>
+      <c r="B34" s="3">
+        <v>283.58099359256221</v>
+      </c>
+      <c r="C34" s="3">
+        <v>71.999195808833463</v>
+      </c>
+      <c r="D34" s="3">
+        <v>10.874792599555381</v>
+      </c>
+      <c r="E34" s="3">
+        <v>8.3380218568355282</v>
+      </c>
+      <c r="F34" s="3">
+        <v>7.4785522901231367</v>
       </c>
       <c r="G34">
-        <v>577.25093818075675</v>
+        <v>382.27155614790968</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1755,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>18</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
+        <v>1</v>
       </c>
       <c r="L34" t="s">
         <v>14</v>
@@ -1769,22 +1769,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>1732.606955237163</v>
+        <v>648.84628904053056</v>
       </c>
       <c r="C35" s="3">
-        <v>299.40953353216059</v>
+        <v>147.46957219958071</v>
       </c>
       <c r="D35" s="3">
-        <v>25.28288387407607</v>
+        <v>23.463071855382221</v>
       </c>
       <c r="E35" s="3">
-        <v>13.337779351692619</v>
+        <v>8.5381940776354419</v>
       </c>
       <c r="F35" s="3">
-        <v>15.794056328225899</v>
+        <v>7.6358130693399824</v>
       </c>
       <c r="G35">
-        <v>2086.431208323319</v>
+        <v>835.9529402424688</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -1807,22 +1807,22 @@
         <v>9</v>
       </c>
       <c r="B36" s="3">
-        <v>1229.658423220495</v>
+        <v>1358.944705653739</v>
       </c>
       <c r="C36" s="3">
-        <v>204.24901621747489</v>
+        <v>521.21822494707658</v>
       </c>
       <c r="D36" s="3">
-        <v>47.581221346136353</v>
+        <v>90.677510460684886</v>
       </c>
       <c r="E36" s="3">
-        <v>18.629300227847029</v>
+        <v>14.07381990315236</v>
       </c>
       <c r="F36" s="3">
-        <v>16.189080901547499</v>
+        <v>7.7894413246896104</v>
       </c>
       <c r="G36">
-        <v>1516.3070419135011</v>
+        <v>1992.7037022893419</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -1844,23 +1844,23 @@
       <c r="A37" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="4">
-        <v>346.79162911138258</v>
-      </c>
-      <c r="C37" s="4">
-        <v>146.32164559845569</v>
-      </c>
-      <c r="D37" s="4">
-        <v>11.53785444674832</v>
-      </c>
-      <c r="E37" s="4">
-        <v>8.033143863679701</v>
-      </c>
-      <c r="F37" s="4">
-        <v>18.088746490331221</v>
+      <c r="B37" s="3">
+        <v>1186.0400168291819</v>
+      </c>
+      <c r="C37" s="3">
+        <v>192.6339732285409</v>
+      </c>
+      <c r="D37" s="3">
+        <v>26.44705508330032</v>
+      </c>
+      <c r="E37" s="3">
+        <v>11.35558753930564</v>
+      </c>
+      <c r="F37" s="3">
+        <v>10.01523611406618</v>
       </c>
       <c r="G37">
-        <v>530.77301951059769</v>
+        <v>1426.491868794395</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1869,10 +1869,10 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>11</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1</v>
       </c>
       <c r="L37" t="s">
         <v>14</v>
@@ -1883,22 +1883,22 @@
         <v>9</v>
       </c>
       <c r="B38" s="3">
-        <v>980.91119389596099</v>
+        <v>358.08096477526919</v>
       </c>
       <c r="C38" s="3">
-        <v>204.02311835377401</v>
+        <v>55.103236798998793</v>
       </c>
       <c r="D38" s="3">
-        <v>22.763902770272161</v>
+        <v>9.9880770201838054</v>
       </c>
       <c r="E38" s="3">
-        <v>14.951378936860261</v>
+        <v>8.5023303315692935</v>
       </c>
       <c r="F38" s="3">
-        <v>20.116120817253769</v>
+        <v>10.363256196406811</v>
       </c>
       <c r="G38">
-        <v>1242.7657147741211</v>
+        <v>442.03786512242777</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -1921,22 +1921,22 @@
         <v>9</v>
       </c>
       <c r="B39" s="3">
-        <v>213.3979008389241</v>
+        <v>2494.9698839670632</v>
       </c>
       <c r="C39" s="3">
-        <v>49.593056916509909</v>
+        <v>506.41964174434321</v>
       </c>
       <c r="D39" s="3">
-        <v>10.16101479657716</v>
+        <v>91.08541226935985</v>
       </c>
       <c r="E39" s="3">
-        <v>14.861638917128399</v>
+        <v>29.0638568347585</v>
       </c>
       <c r="F39" s="3">
-        <v>20.171859755009621</v>
+        <v>13.195763942850579</v>
       </c>
       <c r="G39">
-        <v>308.18547122414918</v>
+        <v>3134.734558758375</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="K39" s="3">
         <v>1</v>
@@ -1958,23 +1958,23 @@
       <c r="A40" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="4">
-        <v>287.10054208180941</v>
-      </c>
-      <c r="C40" s="4">
-        <v>82.824454242349006</v>
-      </c>
-      <c r="D40" s="4">
-        <v>13.28331729260365</v>
-      </c>
-      <c r="E40" s="4">
-        <v>9.5604151794134058</v>
-      </c>
-      <c r="F40" s="4">
-        <v>21.758898491151459</v>
+      <c r="B40" s="3">
+        <v>1732.606955237163</v>
+      </c>
+      <c r="C40" s="3">
+        <v>299.40953353216059</v>
+      </c>
+      <c r="D40" s="3">
+        <v>25.28288387407607</v>
+      </c>
+      <c r="E40" s="3">
+        <v>13.337779351692619</v>
+      </c>
+      <c r="F40" s="3">
+        <v>15.794056328225899</v>
       </c>
       <c r="G40">
-        <v>414.52762728732688</v>
+        <v>2086.431208323319</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>7</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1</v>
       </c>
       <c r="L40" t="s">
         <v>14</v>
@@ -1997,22 +1997,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="3">
-        <v>2961.2277484735919</v>
+        <v>1229.658423220495</v>
       </c>
       <c r="C41" s="3">
-        <v>709.65448999582918</v>
+        <v>204.24901621747489</v>
       </c>
       <c r="D41" s="3">
-        <v>126.30110250302489</v>
+        <v>47.581221346136353</v>
       </c>
       <c r="E41" s="3">
-        <v>46.69565643407951</v>
+        <v>18.629300227847029</v>
       </c>
       <c r="F41" s="3">
-        <v>25.294756546036279</v>
+        <v>16.189080901547499</v>
       </c>
       <c r="G41">
-        <v>3869.173753952562</v>
+        <v>1516.3070419135011</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -2034,23 +2034,23 @@
       <c r="A42" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="4">
-        <v>114.6745030308914</v>
-      </c>
-      <c r="C42" s="4">
-        <v>52.625968462794539</v>
-      </c>
-      <c r="D42" s="4">
-        <v>16.336556976463381</v>
-      </c>
-      <c r="E42" s="4">
-        <v>13.76952663342751</v>
-      </c>
-      <c r="F42" s="4">
-        <v>27.507553790762561</v>
+      <c r="B42" s="3">
+        <v>980.91119389596099</v>
+      </c>
+      <c r="C42" s="3">
+        <v>204.02311835377401</v>
+      </c>
+      <c r="D42" s="3">
+        <v>22.763902770272161</v>
+      </c>
+      <c r="E42" s="3">
+        <v>14.951378936860261</v>
+      </c>
+      <c r="F42" s="3">
+        <v>20.116120817253769</v>
       </c>
       <c r="G42">
-        <v>224.91410889433939</v>
+        <v>1242.7657147741211</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>23</v>
-      </c>
-      <c r="K42" s="4">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K42" s="3">
+        <v>1</v>
       </c>
       <c r="L42" t="s">
         <v>14</v>
@@ -2072,23 +2072,23 @@
       <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="4">
-        <v>608.29940251165795</v>
-      </c>
-      <c r="C43" s="4">
-        <v>223.11130625327201</v>
-      </c>
-      <c r="D43" s="4">
-        <v>68.879390323298281</v>
-      </c>
-      <c r="E43" s="4">
-        <v>53.276324268476351</v>
-      </c>
-      <c r="F43" s="4">
-        <v>40.434983481913839</v>
+      <c r="B43" s="3">
+        <v>213.3979008389241</v>
+      </c>
+      <c r="C43" s="3">
+        <v>49.593056916509909</v>
+      </c>
+      <c r="D43" s="3">
+        <v>10.16101479657716</v>
+      </c>
+      <c r="E43" s="3">
+        <v>14.861638917128399</v>
+      </c>
+      <c r="F43" s="3">
+        <v>20.171859755009621</v>
       </c>
       <c r="G43">
-        <v>994.00140683861866</v>
+        <v>308.18547122414918</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2097,10 +2097,10 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>15</v>
-      </c>
-      <c r="K43" s="4">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1</v>
       </c>
       <c r="L43" t="s">
         <v>14</v>
@@ -2111,22 +2111,22 @@
         <v>9</v>
       </c>
       <c r="B44" s="3">
-        <v>10226.143943050931</v>
+        <v>2961.2277484735919</v>
       </c>
       <c r="C44" s="3">
-        <v>1054.2904260742091</v>
+        <v>709.65448999582918</v>
       </c>
       <c r="D44" s="3">
-        <v>79.421390107595997</v>
+        <v>126.30110250302489</v>
       </c>
       <c r="E44" s="3">
-        <v>28.873044842834311</v>
+        <v>46.69565643407951</v>
       </c>
       <c r="F44" s="3">
-        <v>72.140830720152735</v>
+        <v>25.294756546036279</v>
       </c>
       <c r="G44">
-        <v>11460.869634795719</v>
+        <v>3869.173753952562</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -2149,22 +2149,22 @@
         <v>9</v>
       </c>
       <c r="B45" s="3">
-        <v>862.35497664226705</v>
+        <v>10226.143943050931</v>
       </c>
       <c r="C45" s="3">
-        <v>183.8137877055413</v>
+        <v>1054.2904260742091</v>
       </c>
       <c r="D45" s="3">
-        <v>39.479170603694989</v>
+        <v>79.421390107595997</v>
       </c>
       <c r="E45" s="3">
-        <v>39.812400714282148</v>
+        <v>28.873044842834311</v>
       </c>
       <c r="F45" s="3">
-        <v>92.463433326167277</v>
+        <v>72.140830720152735</v>
       </c>
       <c r="G45">
-        <v>1217.923768991953</v>
+        <v>11460.869634795719</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
@@ -2187,22 +2187,22 @@
         <v>9</v>
       </c>
       <c r="B46" s="3">
-        <v>164.74035343843781</v>
+        <v>862.35497664226705</v>
       </c>
       <c r="C46" s="3">
-        <v>50.277632960534163</v>
+        <v>183.8137877055413</v>
       </c>
       <c r="D46" s="3">
-        <v>20.978881620213681</v>
+        <v>39.479170603694989</v>
       </c>
       <c r="E46" s="3">
-        <v>44.790515264628162</v>
+        <v>39.812400714282148</v>
       </c>
       <c r="F46" s="3">
-        <v>108.6471023452696</v>
+        <v>92.463433326167277</v>
       </c>
       <c r="G46">
-        <v>389.43448562908338</v>
+        <v>1217.923768991953</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K46" s="3">
         <v>1</v>
@@ -2225,22 +2225,22 @@
         <v>9</v>
       </c>
       <c r="B47" s="3">
-        <v>1646.1953474151831</v>
+        <v>164.74035343843781</v>
       </c>
       <c r="C47" s="3">
-        <v>579.10875578418461</v>
+        <v>50.277632960534163</v>
       </c>
       <c r="D47" s="3">
-        <v>192.5977676764067</v>
+        <v>20.978881620213681</v>
       </c>
       <c r="E47" s="3">
-        <v>240.55803900778039</v>
+        <v>44.790515264628162</v>
       </c>
       <c r="F47" s="3">
-        <v>203.13818848357471</v>
+        <v>108.6471023452696</v>
       </c>
       <c r="G47">
-        <v>2861.5980983671288</v>
+        <v>389.43448562908338</v>
       </c>
       <c r="H47">
         <v>0.25</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K47" s="3">
         <v>1</v>
@@ -2262,23 +2262,23 @@
       <c r="A48" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="4">
-        <v>5061.5609306900697</v>
-      </c>
-      <c r="C48" s="4">
-        <v>816.1718269621939</v>
-      </c>
-      <c r="D48" s="4">
-        <v>143.15565512741631</v>
-      </c>
-      <c r="E48" s="4">
-        <v>134.752116767909</v>
-      </c>
-      <c r="F48" s="4">
-        <v>225.39884078746999</v>
+      <c r="B48" s="3">
+        <v>1646.1953474151831</v>
+      </c>
+      <c r="C48" s="3">
+        <v>579.10875578418461</v>
+      </c>
+      <c r="D48" s="3">
+        <v>192.5977676764067</v>
+      </c>
+      <c r="E48" s="3">
+        <v>240.55803900778039</v>
+      </c>
+      <c r="F48" s="3">
+        <v>203.13818848357471</v>
       </c>
       <c r="G48">
-        <v>6381.039370335061</v>
+        <v>2861.5980983671288</v>
       </c>
       <c r="H48">
         <v>0.25</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="J48">
-        <v>24</v>
-      </c>
-      <c r="K48" s="4">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="K48" s="3">
+        <v>1</v>
       </c>
       <c r="L48" t="s">
         <v>14</v>
@@ -2373,8 +2373,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K54">
-    <sortCondition ref="F2:F54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L50">
+    <sortCondition ref="K2:K50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
